--- a/biology/Botanique/Uvularia/Uvularia.xlsx
+++ b/biology/Botanique/Uvularia/Uvularia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Uvularia sont un genre de plantes herbacées vivaces. Il appartient à la famille des Liliaceae selon la classification classique. La classification phylogénétique le place dans la famille des Colchicaceae.
 Ce genre comprend 5 espèces de plantes vivaces rhizomateuses. 
@@ -512,17 +524,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ces plantes rustiques ont des tiges dressées, simples ou ramifiées, avec des feuilles alternes acaules (sans pétiole) ou perfoliées, ovales à lancéolées.
 Les fleurs, terminales, solitaires ou en paires, sont pendantes, jaunes, à 6 tépales.
 C'est une plante d'ombre et de sous-bois, aimant la terre de bruyère.
-Multiplication
-Par semis ou division de touffes.
-Principaux ennemis
-Les limaces et les escargots qui mangent les jeunes feuilles printanières.
-Origine
-Est de l'Amérique du Nord
 </t>
         </is>
       </c>
@@ -548,10 +556,123 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Multiplication</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Par semis ou division de touffes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Uvularia</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Uvularia</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Principaux ennemis</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les limaces et les escargots qui mangent les jeunes feuilles printanières.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Uvularia</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Uvularia</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Origine</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Est de l'Amérique du Nord
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Uvularia</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Uvularia</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Uvularia floridana Chapman
 Uvularia grandiflora Sm.
